--- a/Code/Results/Cases/Case_4_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_171/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.84834604822788</v>
+        <v>18.4719828220254</v>
       </c>
       <c r="C2">
-        <v>6.589642592893225</v>
+        <v>3.985370914692276</v>
       </c>
       <c r="D2">
-        <v>9.106534038903463</v>
+        <v>13.38802245895359</v>
       </c>
       <c r="E2">
-        <v>8.003918773320054</v>
+        <v>13.33572870600416</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>43.68413974978549</v>
+        <v>58.78707181388163</v>
       </c>
       <c r="H2">
-        <v>14.09781339997746</v>
+        <v>21.83491932852445</v>
       </c>
       <c r="I2">
-        <v>22.77674208429844</v>
+        <v>34.23327389924454</v>
       </c>
       <c r="J2">
-        <v>4.672947030165512</v>
+        <v>8.09841928367309</v>
       </c>
       <c r="K2">
-        <v>12.81977807286135</v>
+        <v>15.69790975316831</v>
       </c>
       <c r="L2">
-        <v>8.335264501539012</v>
+        <v>13.28784835181251</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.45857781346925</v>
+        <v>23.53594965567865</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.01559241378005</v>
+        <v>18.33948526715091</v>
       </c>
       <c r="C3">
-        <v>6.160387082712151</v>
+        <v>3.824005895274447</v>
       </c>
       <c r="D3">
-        <v>8.889186759952029</v>
+        <v>13.38400673635103</v>
       </c>
       <c r="E3">
-        <v>7.958088736090768</v>
+        <v>13.35509141908951</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.01004866473704</v>
+        <v>58.8113216145212</v>
       </c>
       <c r="H3">
-        <v>14.07596911085928</v>
+        <v>21.87748911878925</v>
       </c>
       <c r="I3">
-        <v>22.73506108103206</v>
+        <v>34.30097935308942</v>
       </c>
       <c r="J3">
-        <v>4.689575172941765</v>
+        <v>8.10537654741017</v>
       </c>
       <c r="K3">
-        <v>12.18719499126255</v>
+        <v>15.60897739493171</v>
       </c>
       <c r="L3">
-        <v>8.202917490616086</v>
+        <v>13.29681719386852</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.66453942857258</v>
+        <v>23.59692633428064</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.4888453677652</v>
+        <v>18.26180872874116</v>
       </c>
       <c r="C4">
-        <v>5.883055771210617</v>
+        <v>3.722482136764341</v>
       </c>
       <c r="D4">
-        <v>8.758358941931682</v>
+        <v>13.38387962481035</v>
       </c>
       <c r="E4">
-        <v>7.933286783621023</v>
+        <v>13.36860073078243</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>42.62570175498534</v>
+        <v>58.83862896802451</v>
       </c>
       <c r="H4">
-        <v>14.0706063871626</v>
+        <v>21.90679245779249</v>
       </c>
       <c r="I4">
-        <v>22.72352052876255</v>
+        <v>34.34789596451074</v>
       </c>
       <c r="J4">
-        <v>4.70019057770357</v>
+        <v>8.109890097362692</v>
       </c>
       <c r="K4">
-        <v>11.78890267114237</v>
+        <v>15.55749944488382</v>
       </c>
       <c r="L4">
-        <v>8.124881978155551</v>
+        <v>13.30427533538676</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.79459214352912</v>
+        <v>23.63627814492062</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.27056483883841</v>
+        <v>18.23110932800985</v>
       </c>
       <c r="C5">
-        <v>5.766560642808868</v>
+        <v>3.680566255744769</v>
       </c>
       <c r="D5">
-        <v>8.705759244624266</v>
+        <v>13.38441720171925</v>
       </c>
       <c r="E5">
-        <v>7.924008416661256</v>
+        <v>13.37451378038028</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>42.47641833320571</v>
+        <v>58.85287677534132</v>
       </c>
       <c r="H5">
-        <v>14.07037923137895</v>
+        <v>21.91952934596434</v>
       </c>
       <c r="I5">
-        <v>22.72222920579399</v>
+        <v>34.36835767035057</v>
       </c>
       <c r="J5">
-        <v>4.704619746494002</v>
+        <v>8.111790384988359</v>
       </c>
       <c r="K5">
-        <v>11.62431866438404</v>
+        <v>15.53732590235453</v>
       </c>
       <c r="L5">
-        <v>8.09390809207998</v>
+        <v>13.30780579835134</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.84850241860921</v>
+        <v>23.65279611753391</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.23410884365418</v>
+        <v>18.22607019548395</v>
       </c>
       <c r="C6">
-        <v>5.747006066022618</v>
+        <v>3.673575509541598</v>
       </c>
       <c r="D6">
-        <v>8.697069785575314</v>
+        <v>13.38454209623771</v>
       </c>
       <c r="E6">
-        <v>7.922517470577422</v>
+        <v>13.375520284751</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>42.45207035913129</v>
+        <v>58.85543093640311</v>
       </c>
       <c r="H6">
-        <v>14.07045786425032</v>
+        <v>21.92169233223036</v>
       </c>
       <c r="I6">
-        <v>22.72221728083602</v>
+        <v>34.37183638321651</v>
       </c>
       <c r="J6">
-        <v>4.705361483278581</v>
+        <v>8.112109614792026</v>
       </c>
       <c r="K6">
-        <v>11.59685890273057</v>
+        <v>15.5340251673263</v>
       </c>
       <c r="L6">
-        <v>8.088815213560293</v>
+        <v>13.30842171089887</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.85750959488793</v>
+        <v>23.65556804372703</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.48591587409381</v>
+        <v>18.2613908035063</v>
       </c>
       <c r="C7">
-        <v>5.881498790028568</v>
+        <v>3.721918948574174</v>
       </c>
       <c r="D7">
-        <v>8.757646603015134</v>
+        <v>13.38388448684381</v>
       </c>
       <c r="E7">
-        <v>7.933158311901417</v>
+        <v>13.36867882417367</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>42.62365887362282</v>
+        <v>58.83880849156425</v>
       </c>
       <c r="H7">
-        <v>14.07059548173381</v>
+        <v>21.90696101142112</v>
       </c>
       <c r="I7">
-        <v>22.72348946081845</v>
+        <v>34.34816648309842</v>
       </c>
       <c r="J7">
-        <v>4.70024989104898</v>
+        <v>8.109915478154315</v>
       </c>
       <c r="K7">
-        <v>11.786691950067</v>
+        <v>15.55722409881662</v>
       </c>
       <c r="L7">
-        <v>8.124460889373973</v>
+        <v>13.30432095890686</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.79531548765049</v>
+        <v>23.63649895997661</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.56455337578884</v>
+        <v>18.42555269999538</v>
       </c>
       <c r="C8">
-        <v>6.444479778065876</v>
+        <v>3.93027974370776</v>
       </c>
       <c r="D8">
-        <v>9.031080110202723</v>
+        <v>13.38615334288703</v>
       </c>
       <c r="E8">
-        <v>7.987417563548667</v>
+        <v>13.3420688776248</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>43.4455321843928</v>
+        <v>58.79285456221987</v>
       </c>
       <c r="H8">
-        <v>14.08857087949874</v>
+        <v>21.84894020289344</v>
       </c>
       <c r="I8">
-        <v>22.7593804876903</v>
+        <v>34.2555086060437</v>
       </c>
       <c r="J8">
-        <v>4.678597014879222</v>
+        <v>8.100768082778211</v>
       </c>
       <c r="K8">
-        <v>12.60382921721537</v>
+        <v>15.66660796751487</v>
       </c>
       <c r="L8">
-        <v>8.288971029111652</v>
+        <v>13.29053619365721</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.52885367392823</v>
+        <v>23.55657822572745</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.54849945526938</v>
+        <v>18.77527455937746</v>
       </c>
       <c r="C9">
-        <v>7.440351371419853</v>
+        <v>4.321962117128312</v>
       </c>
       <c r="D9">
-        <v>9.585810286454393</v>
+        <v>13.40908977727998</v>
       </c>
       <c r="E9">
-        <v>8.120757764809193</v>
+        <v>13.30272693280821</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>45.29492750431871</v>
+        <v>58.80133979167086</v>
       </c>
       <c r="H9">
-        <v>14.19068231678849</v>
+        <v>21.7602940952139</v>
       </c>
       <c r="I9">
-        <v>22.94675506321862</v>
+        <v>34.11627324508583</v>
       </c>
       <c r="J9">
-        <v>4.639293476532046</v>
+        <v>8.084739882992933</v>
       </c>
       <c r="K9">
-        <v>14.12039280700847</v>
+        <v>15.90508091119165</v>
       </c>
       <c r="L9">
-        <v>8.636478549109832</v>
+        <v>13.27895888362865</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.03440166632162</v>
+        <v>23.41497607086558</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.91723922164244</v>
+        <v>19.04722348342992</v>
       </c>
       <c r="C10">
-        <v>8.107952902879973</v>
+        <v>4.659615525253562</v>
       </c>
       <c r="D10">
-        <v>10.0017949374926</v>
+        <v>13.43710538011653</v>
       </c>
       <c r="E10">
-        <v>8.235742527634732</v>
+        <v>13.28162499785005</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>46.80239343871729</v>
+        <v>58.86770342984167</v>
       </c>
       <c r="H10">
-        <v>14.31063116485141</v>
+        <v>21.71050925058626</v>
       </c>
       <c r="I10">
-        <v>23.16335400191604</v>
+        <v>34.03993647810577</v>
       </c>
       <c r="J10">
-        <v>4.612253783482696</v>
+        <v>8.074116468018696</v>
       </c>
       <c r="K10">
-        <v>15.1746152257245</v>
+        <v>16.09370547114083</v>
       </c>
       <c r="L10">
-        <v>8.906051696703972</v>
+        <v>13.2798326580909</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.68770992442568</v>
+        <v>23.32009199943485</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.51948095856505</v>
+        <v>19.17376339045218</v>
       </c>
       <c r="C11">
-        <v>8.398237889841035</v>
+        <v>4.804795059528643</v>
       </c>
       <c r="D11">
-        <v>10.19233824673758</v>
+        <v>13.452246232178</v>
       </c>
       <c r="E11">
-        <v>8.291870023358051</v>
+        <v>13.27371346016956</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>47.52117612581127</v>
+        <v>58.9109243812064</v>
       </c>
       <c r="H11">
-        <v>14.37587159292209</v>
+        <v>21.69119607310208</v>
       </c>
       <c r="I11">
-        <v>23.28069044664835</v>
+        <v>34.01085833806223</v>
       </c>
       <c r="J11">
-        <v>4.600331309974674</v>
+        <v>8.069531359047859</v>
       </c>
       <c r="K11">
-        <v>15.64283037597757</v>
+        <v>16.18215567904089</v>
       </c>
       <c r="L11">
-        <v>9.031601273785773</v>
+        <v>13.28225550314752</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.53349808863113</v>
+        <v>23.278899530602</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.74454509844123</v>
+        <v>19.22204979528121</v>
       </c>
       <c r="C12">
-        <v>8.506277910012148</v>
+        <v>4.858558717272234</v>
       </c>
       <c r="D12">
-        <v>10.26464295921809</v>
+        <v>13.45832136267134</v>
       </c>
       <c r="E12">
-        <v>8.313683043689966</v>
+        <v>13.270959701815</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.79816580145715</v>
+        <v>58.92915992484763</v>
       </c>
       <c r="H12">
-        <v>14.40218859656186</v>
+        <v>21.68436229039294</v>
       </c>
       <c r="I12">
-        <v>23.32796516863705</v>
+        <v>34.0006601086161</v>
       </c>
       <c r="J12">
-        <v>4.595869219742443</v>
+        <v>8.067830502628871</v>
       </c>
       <c r="K12">
-        <v>15.85205927868545</v>
+        <v>16.21600548674147</v>
       </c>
       <c r="L12">
-        <v>9.079549772733943</v>
+        <v>13.28346300435027</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.47560039377679</v>
+        <v>23.26358338681945</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.69620719691581</v>
+        <v>19.21163468061549</v>
       </c>
       <c r="C13">
-        <v>8.48309263254526</v>
+        <v>4.847033700362648</v>
       </c>
       <c r="D13">
-        <v>10.24906471300585</v>
+        <v>13.4569978316202</v>
       </c>
       <c r="E13">
-        <v>8.308960216255246</v>
+        <v>13.27154201143991</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>47.73829660613702</v>
+        <v>58.92514956346363</v>
       </c>
       <c r="H13">
-        <v>14.39644782680744</v>
+        <v>21.68581272996912</v>
       </c>
       <c r="I13">
-        <v>23.31765509151036</v>
+        <v>34.00282030775877</v>
       </c>
       <c r="J13">
-        <v>4.596827894605961</v>
+        <v>8.068195239661467</v>
       </c>
       <c r="K13">
-        <v>15.80717307062012</v>
+        <v>16.20869990541795</v>
       </c>
       <c r="L13">
-        <v>9.069205367473575</v>
+        <v>13.28319006941814</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.48804755350191</v>
+        <v>23.26686943917786</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.53805731319164</v>
+        <v>19.17772877818343</v>
       </c>
       <c r="C14">
-        <v>8.407163911133967</v>
+        <v>4.8092425374673</v>
       </c>
       <c r="D14">
-        <v>10.19828398789011</v>
+        <v>13.45273920838928</v>
       </c>
       <c r="E14">
-        <v>8.293653340657226</v>
+        <v>13.27348205661731</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>47.54386765696385</v>
+        <v>58.91238721439957</v>
       </c>
       <c r="H14">
-        <v>14.37800395755324</v>
+        <v>21.69062423868776</v>
       </c>
       <c r="I14">
-        <v>23.28452201053571</v>
+        <v>34.01000302478378</v>
       </c>
       <c r="J14">
-        <v>4.599963164928447</v>
+        <v>8.069390719571349</v>
       </c>
       <c r="K14">
-        <v>15.6601227315442</v>
+        <v>16.18493353845135</v>
       </c>
       <c r="L14">
-        <v>9.035537969900558</v>
+        <v>13.28234903999207</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.52872482781153</v>
+        <v>23.27763380428343</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.44079508561297</v>
+        <v>19.15700727635327</v>
       </c>
       <c r="C15">
-        <v>8.360411320144182</v>
+        <v>4.785936401870042</v>
       </c>
       <c r="D15">
-        <v>10.16719784428334</v>
+        <v>13.45017507403897</v>
       </c>
       <c r="E15">
-        <v>8.284350486805611</v>
+        <v>13.27470191117084</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>47.42540141126905</v>
+        <v>58.90481308501836</v>
       </c>
       <c r="H15">
-        <v>14.3669187804319</v>
+        <v>21.69363390355326</v>
       </c>
       <c r="I15">
-        <v>23.26460128397697</v>
+        <v>34.01450855029537</v>
       </c>
       <c r="J15">
-        <v>4.601890419762015</v>
+        <v>8.070127593858988</v>
       </c>
       <c r="K15">
-        <v>15.57926315042062</v>
+        <v>16.17042152730097</v>
       </c>
       <c r="L15">
-        <v>9.014968155503569</v>
+        <v>13.28187161611129</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.55370572030452</v>
+        <v>23.28426406033899</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.87746516485867</v>
+        <v>19.03900746593661</v>
       </c>
       <c r="C16">
-        <v>8.088715889511878</v>
+        <v>4.649958070306834</v>
       </c>
       <c r="D16">
-        <v>9.989365432627856</v>
+        <v>13.43616386341945</v>
       </c>
       <c r="E16">
-        <v>8.232152137347045</v>
+        <v>13.28217595385587</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>46.75608827124653</v>
+        <v>58.86514065969215</v>
       </c>
       <c r="H16">
-        <v>14.30658888255642</v>
+        <v>21.71183852742262</v>
       </c>
       <c r="I16">
-        <v>23.15607591618653</v>
+        <v>34.04195053072756</v>
       </c>
       <c r="J16">
-        <v>4.613040411116508</v>
+        <v>8.074421082117308</v>
       </c>
       <c r="K16">
-        <v>15.14390415354853</v>
+        <v>16.08797615931255</v>
       </c>
       <c r="L16">
-        <v>8.897904217195943</v>
+        <v>13.27971497348751</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.69785804739508</v>
+        <v>23.32282360852073</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.52660459743458</v>
+        <v>18.96731588762065</v>
       </c>
       <c r="C17">
-        <v>7.91863461688451</v>
+        <v>4.564381300882197</v>
       </c>
       <c r="D17">
-        <v>9.880577370368295</v>
+        <v>13.42818018828419</v>
       </c>
       <c r="E17">
-        <v>8.20111525238239</v>
+        <v>13.2871929617331</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>46.35398130106127</v>
+        <v>58.84413743781504</v>
       </c>
       <c r="H17">
-        <v>14.27236666386645</v>
+        <v>21.7238606411319</v>
       </c>
       <c r="I17">
-        <v>23.09441277135107</v>
+        <v>34.06023252058665</v>
       </c>
       <c r="J17">
-        <v>4.619976227169255</v>
+        <v>8.077118276172776</v>
       </c>
       <c r="K17">
-        <v>14.87318043171644</v>
+        <v>16.03805849774639</v>
       </c>
       <c r="L17">
-        <v>8.826826222532812</v>
+        <v>13.27890985941658</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.78718360881845</v>
+        <v>23.34698279782065</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.32287987628431</v>
+        <v>18.9263493982357</v>
       </c>
       <c r="C18">
-        <v>7.819543240501157</v>
+        <v>4.514367219953082</v>
       </c>
       <c r="D18">
-        <v>9.818130572669375</v>
+        <v>13.42381394831618</v>
       </c>
       <c r="E18">
-        <v>8.18362268216762</v>
+        <v>13.29023751417523</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>46.12580546294094</v>
+        <v>58.83328396939685</v>
       </c>
       <c r="H18">
-        <v>14.25368304572041</v>
+        <v>21.7310892634969</v>
       </c>
       <c r="I18">
-        <v>23.06070735809157</v>
+        <v>34.07127939631665</v>
       </c>
       <c r="J18">
-        <v>4.62400121020523</v>
+        <v>8.078692940198536</v>
       </c>
       <c r="K18">
-        <v>14.71614697315526</v>
+        <v>16.00959755307619</v>
       </c>
       <c r="L18">
-        <v>8.786219563076807</v>
+        <v>13.27863749717868</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.83889089897175</v>
+        <v>23.36106407209184</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.25357480018818</v>
+        <v>18.91252614150785</v>
       </c>
       <c r="C19">
-        <v>7.78577405356125</v>
+        <v>4.497297261575957</v>
       </c>
       <c r="D19">
-        <v>9.797009930236396</v>
+        <v>13.42237447491602</v>
       </c>
       <c r="E19">
-        <v>8.177761378169563</v>
+        <v>13.29129565470362</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>46.04908091314161</v>
+        <v>58.82982004896519</v>
       </c>
       <c r="H19">
-        <v>14.24752655097014</v>
+        <v>21.73359064113004</v>
       </c>
       <c r="I19">
-        <v>23.04959367733105</v>
+        <v>34.07511094496476</v>
       </c>
       <c r="J19">
-        <v>4.625370178798664</v>
+        <v>8.079230103002482</v>
       </c>
       <c r="K19">
-        <v>14.66275345999158</v>
+        <v>16.00000490649956</v>
       </c>
       <c r="L19">
-        <v>8.772518635786945</v>
+        <v>13.27857807107198</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.85645486805071</v>
+        <v>23.365863643635</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.56415341671532</v>
+        <v>18.97492005424376</v>
       </c>
       <c r="C20">
-        <v>7.936870691251542</v>
+        <v>4.573573141137613</v>
       </c>
       <c r="D20">
-        <v>9.892145382128884</v>
+        <v>13.42900671963773</v>
       </c>
       <c r="E20">
-        <v>8.204381956677025</v>
+        <v>13.28664245068149</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>46.39646451305305</v>
+        <v>58.84624630661131</v>
       </c>
       <c r="H20">
-        <v>14.27590562086866</v>
+        <v>21.72254838530732</v>
       </c>
       <c r="I20">
-        <v>23.10079360873891</v>
+        <v>34.05823135029669</v>
       </c>
       <c r="J20">
-        <v>4.619234216271156</v>
+        <v>8.07682874407177</v>
       </c>
       <c r="K20">
-        <v>14.90213656264604</v>
+        <v>16.04334658125622</v>
       </c>
       <c r="L20">
-        <v>8.834364190873391</v>
+        <v>13.27897583500608</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.77764067630013</v>
+        <v>23.34439181354361</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.58459128710684</v>
+        <v>19.18767807072321</v>
       </c>
       <c r="C21">
-        <v>8.429516793953866</v>
+        <v>4.820375637561525</v>
       </c>
       <c r="D21">
-        <v>10.21319571838649</v>
+        <v>13.45398082304191</v>
       </c>
       <c r="E21">
-        <v>8.298134100468575</v>
+        <v>13.27290565042382</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.60084535880485</v>
+        <v>58.91608515921355</v>
       </c>
       <c r="H21">
-        <v>14.38337700164924</v>
+        <v>21.68919796149562</v>
       </c>
       <c r="I21">
-        <v>23.29417575812468</v>
+        <v>34.00787121505625</v>
       </c>
       <c r="J21">
-        <v>4.59904084366587</v>
+        <v>8.069038618074821</v>
       </c>
       <c r="K21">
-        <v>15.70342189983304</v>
+        <v>16.19190484341162</v>
       </c>
       <c r="L21">
-        <v>9.045415994461081</v>
+        <v>13.28258820999865</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.51676340872665</v>
+        <v>23.27446438762855</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.23406020760066</v>
+        <v>19.32885749282669</v>
       </c>
       <c r="C22">
-        <v>8.740528086573692</v>
+        <v>4.974606964969225</v>
       </c>
       <c r="D22">
-        <v>10.42388233633182</v>
+        <v>13.47229247034152</v>
       </c>
       <c r="E22">
-        <v>8.362668002381497</v>
+        <v>13.26533912551588</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>48.41600080069807</v>
+        <v>58.97261758624036</v>
       </c>
       <c r="H22">
-        <v>14.46304808458369</v>
+        <v>21.6701976399886</v>
       </c>
       <c r="I22">
-        <v>23.43719322105295</v>
+        <v>33.97969721416172</v>
       </c>
       <c r="J22">
-        <v>4.586149604933579</v>
+        <v>8.064153725371687</v>
       </c>
       <c r="K22">
-        <v>16.30512967215735</v>
+        <v>16.291057378076</v>
       </c>
       <c r="L22">
-        <v>9.185709900357015</v>
+        <v>13.28663891696408</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.34917297250108</v>
+        <v>23.23040931191624</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.889034879521</v>
+        <v>19.25332527933734</v>
       </c>
       <c r="C23">
-        <v>8.575522854184337</v>
+        <v>4.892937817111536</v>
       </c>
       <c r="D23">
-        <v>10.31136708343987</v>
+        <v>13.46233820837368</v>
       </c>
       <c r="E23">
-        <v>8.327923437710266</v>
+        <v>13.26924858013166</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>47.97835304497368</v>
+        <v>58.94145099430481</v>
       </c>
       <c r="H23">
-        <v>14.41963716838506</v>
+        <v>21.68008256425374</v>
       </c>
       <c r="I23">
-        <v>23.35929411157273</v>
+        <v>33.99430031841558</v>
       </c>
       <c r="J23">
-        <v>4.593002446616852</v>
+        <v>8.066742054433726</v>
       </c>
       <c r="K23">
-        <v>15.98607012092333</v>
+        <v>16.23795747223639</v>
       </c>
       <c r="L23">
-        <v>9.110620577369996</v>
+        <v>13.2843227988204</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.43835395661582</v>
+        <v>23.25377195085683</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.5471838525072</v>
+        <v>18.97148142899663</v>
       </c>
       <c r="C24">
-        <v>7.928630243736934</v>
+        <v>4.56942004816513</v>
       </c>
       <c r="D24">
-        <v>9.886915179181621</v>
+        <v>13.42863234785766</v>
       </c>
       <c r="E24">
-        <v>8.202903987244788</v>
+        <v>13.28689083766096</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>46.37724850987825</v>
+        <v>58.84528908144077</v>
       </c>
       <c r="H24">
-        <v>14.27430257685763</v>
+        <v>21.72314066885478</v>
       </c>
       <c r="I24">
-        <v>23.09790340556295</v>
+        <v>34.05913440878926</v>
       </c>
       <c r="J24">
-        <v>4.619569562500121</v>
+        <v>8.076959566729727</v>
       </c>
       <c r="K24">
-        <v>14.88904982331705</v>
+        <v>16.04095509739044</v>
       </c>
       <c r="L24">
-        <v>8.830955473694466</v>
+        <v>13.2789454139339</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.78195393673634</v>
+        <v>23.34556259986865</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.02689998002007</v>
+        <v>18.67788482747877</v>
       </c>
       <c r="C25">
-        <v>7.182342680091685</v>
+        <v>4.214921106062018</v>
       </c>
       <c r="D25">
-        <v>9.434066383224172</v>
+        <v>13.40091549115406</v>
       </c>
       <c r="E25">
-        <v>8.081738386565156</v>
+        <v>13.31199779529273</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>44.76874167956714</v>
+        <v>58.78848040190624</v>
       </c>
       <c r="H25">
-        <v>14.15547380685988</v>
+        <v>21.78158207314504</v>
       </c>
       <c r="I25">
-        <v>22.88275844828626</v>
+        <v>34.14938590689129</v>
       </c>
       <c r="J25">
-        <v>4.64959699608966</v>
+        <v>8.088872699006689</v>
       </c>
       <c r="K25">
-        <v>13.72021686661366</v>
+        <v>15.83812086333512</v>
       </c>
       <c r="L25">
-        <v>8.53989828492648</v>
+        <v>13.28044015995459</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.16521665806575</v>
+        <v>23.45167135087825</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_171/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.4719828220254</v>
+        <v>15.84834604822785</v>
       </c>
       <c r="C2">
-        <v>3.985370914692276</v>
+        <v>6.589642592893154</v>
       </c>
       <c r="D2">
-        <v>13.38802245895359</v>
+        <v>9.10653403890362</v>
       </c>
       <c r="E2">
-        <v>13.33572870600416</v>
+        <v>8.003918773320102</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>58.78707181388163</v>
+        <v>43.68413974978523</v>
       </c>
       <c r="H2">
-        <v>21.83491932852445</v>
+        <v>14.09781339997743</v>
       </c>
       <c r="I2">
-        <v>34.23327389924454</v>
+        <v>22.77674208429834</v>
       </c>
       <c r="J2">
-        <v>8.09841928367309</v>
+        <v>4.67294703016551</v>
       </c>
       <c r="K2">
-        <v>15.69790975316831</v>
+        <v>12.81977807286133</v>
       </c>
       <c r="L2">
-        <v>13.28784835181251</v>
+        <v>8.335264501539053</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>23.53594965567865</v>
+        <v>15.45857781346917</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.33948526715091</v>
+        <v>15.01559241378007</v>
       </c>
       <c r="C3">
-        <v>3.824005895274447</v>
+        <v>6.160387082712127</v>
       </c>
       <c r="D3">
-        <v>13.38400673635103</v>
+        <v>8.889186759952025</v>
       </c>
       <c r="E3">
-        <v>13.35509141908951</v>
+        <v>7.958088736090768</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.8113216145212</v>
+        <v>43.01004866473709</v>
       </c>
       <c r="H3">
-        <v>21.87748911878925</v>
+        <v>14.07596911085935</v>
       </c>
       <c r="I3">
-        <v>34.30097935308942</v>
+        <v>22.73506108103211</v>
       </c>
       <c r="J3">
-        <v>8.10537654741017</v>
+        <v>4.689575172941765</v>
       </c>
       <c r="K3">
-        <v>15.60897739493171</v>
+        <v>12.18719499126255</v>
       </c>
       <c r="L3">
-        <v>13.29681719386852</v>
+        <v>8.202917490616136</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.59692633428064</v>
+        <v>15.66453942857262</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.26180872874116</v>
+        <v>14.4888453677652</v>
       </c>
       <c r="C4">
-        <v>3.722482136764341</v>
+        <v>5.883055771210448</v>
       </c>
       <c r="D4">
-        <v>13.38387962481035</v>
+        <v>8.758358941931597</v>
       </c>
       <c r="E4">
-        <v>13.36860073078243</v>
+        <v>7.933286783621134</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>58.83862896802451</v>
+        <v>42.62570175498544</v>
       </c>
       <c r="H4">
-        <v>21.90679245779249</v>
+        <v>14.0706063871626</v>
       </c>
       <c r="I4">
-        <v>34.34789596451074</v>
+        <v>22.72352052876256</v>
       </c>
       <c r="J4">
-        <v>8.109890097362692</v>
+        <v>4.70019057770367</v>
       </c>
       <c r="K4">
-        <v>15.55749944488382</v>
+        <v>11.78890267114235</v>
       </c>
       <c r="L4">
-        <v>13.30427533538676</v>
+        <v>8.124881978155621</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.63627814492062</v>
+        <v>15.79459214352915</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23110932800985</v>
+        <v>14.27056483883845</v>
       </c>
       <c r="C5">
-        <v>3.680566255744769</v>
+        <v>5.766560642808883</v>
       </c>
       <c r="D5">
-        <v>13.38441720171925</v>
+        <v>8.705759244624245</v>
       </c>
       <c r="E5">
-        <v>13.37451378038028</v>
+        <v>7.924008416661245</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>58.85287677534132</v>
+        <v>42.47641833320588</v>
       </c>
       <c r="H5">
-        <v>21.91952934596434</v>
+        <v>14.07037923137911</v>
       </c>
       <c r="I5">
-        <v>34.36835767035057</v>
+        <v>22.72222920579414</v>
       </c>
       <c r="J5">
-        <v>8.111790384988359</v>
+        <v>4.704619746494002</v>
       </c>
       <c r="K5">
-        <v>15.53732590235453</v>
+        <v>11.62431866438408</v>
       </c>
       <c r="L5">
-        <v>13.30780579835134</v>
+        <v>8.09390809208</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.65279611753391</v>
+        <v>15.84850241860928</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.22607019548395</v>
+        <v>14.23410884365417</v>
       </c>
       <c r="C6">
-        <v>3.673575509541598</v>
+        <v>5.747006066022457</v>
       </c>
       <c r="D6">
-        <v>13.38454209623771</v>
+        <v>8.697069785575206</v>
       </c>
       <c r="E6">
-        <v>13.375520284751</v>
+        <v>7.922517470577479</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>58.85543093640311</v>
+        <v>42.45207035913124</v>
       </c>
       <c r="H6">
-        <v>21.92169233223036</v>
+        <v>14.07045786425027</v>
       </c>
       <c r="I6">
-        <v>34.37183638321651</v>
+        <v>22.7222172808359</v>
       </c>
       <c r="J6">
-        <v>8.112109614792026</v>
+        <v>4.705361483278747</v>
       </c>
       <c r="K6">
-        <v>15.5340251673263</v>
+        <v>11.59685890273055</v>
       </c>
       <c r="L6">
-        <v>13.30842171089887</v>
+        <v>8.088815213560357</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.65556804372703</v>
+        <v>15.85750959488784</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.2613908035063</v>
+        <v>14.48591587409381</v>
       </c>
       <c r="C7">
-        <v>3.721918948574174</v>
+        <v>5.88149879002859</v>
       </c>
       <c r="D7">
-        <v>13.38388448684381</v>
+        <v>8.757646603015123</v>
       </c>
       <c r="E7">
-        <v>13.36867882417367</v>
+        <v>7.933158311901361</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>58.83880849156425</v>
+        <v>42.62365887362295</v>
       </c>
       <c r="H7">
-        <v>21.90696101142112</v>
+        <v>14.07059548173375</v>
       </c>
       <c r="I7">
-        <v>34.34816648309842</v>
+        <v>22.72348946081846</v>
       </c>
       <c r="J7">
-        <v>8.109915478154315</v>
+        <v>4.700249891048947</v>
       </c>
       <c r="K7">
-        <v>15.55722409881662</v>
+        <v>11.786691950067</v>
       </c>
       <c r="L7">
-        <v>13.30432095890686</v>
+        <v>8.124460889373923</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.63649895997661</v>
+        <v>15.79531548765049</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.42555269999538</v>
+        <v>15.56455337578885</v>
       </c>
       <c r="C8">
-        <v>3.93027974370776</v>
+        <v>6.444479778066016</v>
       </c>
       <c r="D8">
-        <v>13.38615334288703</v>
+        <v>9.031080110202717</v>
       </c>
       <c r="E8">
-        <v>13.3420688776248</v>
+        <v>7.987417563548668</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>58.79285456221987</v>
+        <v>43.44553218439281</v>
       </c>
       <c r="H8">
-        <v>21.84894020289344</v>
+        <v>14.08857087949871</v>
       </c>
       <c r="I8">
-        <v>34.2555086060437</v>
+        <v>22.75938048769029</v>
       </c>
       <c r="J8">
-        <v>8.100768082778211</v>
+        <v>4.678597014879224</v>
       </c>
       <c r="K8">
-        <v>15.66660796751487</v>
+        <v>12.60382921721535</v>
       </c>
       <c r="L8">
-        <v>13.29053619365721</v>
+        <v>8.288971029111604</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23.55657822572745</v>
+        <v>15.52885367392821</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.77527455937746</v>
+        <v>17.54849945526946</v>
       </c>
       <c r="C9">
-        <v>4.321962117128312</v>
+        <v>7.440351371420056</v>
       </c>
       <c r="D9">
-        <v>13.40908977727998</v>
+        <v>9.585810286454501</v>
       </c>
       <c r="E9">
-        <v>13.30272693280821</v>
+        <v>8.120757764809294</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>58.80133979167086</v>
+        <v>45.29492750431885</v>
       </c>
       <c r="H9">
-        <v>21.7602940952139</v>
+        <v>14.19068231678853</v>
       </c>
       <c r="I9">
-        <v>34.11627324508583</v>
+        <v>22.94675506321879</v>
       </c>
       <c r="J9">
-        <v>8.084739882992933</v>
+        <v>4.639293476532045</v>
       </c>
       <c r="K9">
-        <v>15.90508091119165</v>
+        <v>14.12039280700847</v>
       </c>
       <c r="L9">
-        <v>13.27895888362865</v>
+        <v>8.636478549109802</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.41497607086558</v>
+        <v>15.03440166632165</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.04722348342992</v>
+        <v>18.91723922164243</v>
       </c>
       <c r="C10">
-        <v>4.659615525253562</v>
+        <v>8.107952902879889</v>
       </c>
       <c r="D10">
-        <v>13.43710538011653</v>
+        <v>10.00179493749258</v>
       </c>
       <c r="E10">
-        <v>13.28162499785005</v>
+        <v>8.235742527634789</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>58.86770342984167</v>
+        <v>46.80239343871721</v>
       </c>
       <c r="H10">
-        <v>21.71050925058626</v>
+        <v>14.31063116485126</v>
       </c>
       <c r="I10">
-        <v>34.03993647810577</v>
+        <v>23.1633540019159</v>
       </c>
       <c r="J10">
-        <v>8.074116468018696</v>
+        <v>4.61225378348276</v>
       </c>
       <c r="K10">
-        <v>16.09370547114083</v>
+        <v>15.17461522572451</v>
       </c>
       <c r="L10">
-        <v>13.2798326580909</v>
+        <v>8.906051696704049</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.32009199943485</v>
+        <v>14.68770992442557</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.17376339045218</v>
+        <v>19.51948095856506</v>
       </c>
       <c r="C11">
-        <v>4.804795059528643</v>
+        <v>8.398237889841145</v>
       </c>
       <c r="D11">
-        <v>13.452246232178</v>
+        <v>10.19233824673759</v>
       </c>
       <c r="E11">
-        <v>13.27371346016956</v>
+        <v>8.291870023358104</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>58.9109243812064</v>
+        <v>47.52117612581116</v>
       </c>
       <c r="H11">
-        <v>21.69119607310208</v>
+        <v>14.375871592922</v>
       </c>
       <c r="I11">
-        <v>34.01085833806223</v>
+        <v>23.28069044664828</v>
       </c>
       <c r="J11">
-        <v>8.069531359047859</v>
+        <v>4.600331309974708</v>
       </c>
       <c r="K11">
-        <v>16.18215567904089</v>
+        <v>15.64283037597761</v>
       </c>
       <c r="L11">
-        <v>13.28225550314752</v>
+        <v>9.031601273785764</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.278899530602</v>
+        <v>14.53349808863104</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.22204979528121</v>
+        <v>19.74454509844125</v>
       </c>
       <c r="C12">
-        <v>4.858558717272234</v>
+        <v>8.506277910012038</v>
       </c>
       <c r="D12">
-        <v>13.45832136267134</v>
+        <v>10.26464295921808</v>
       </c>
       <c r="E12">
-        <v>13.270959701815</v>
+        <v>8.313683043689888</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>58.92915992484763</v>
+        <v>47.79816580145716</v>
       </c>
       <c r="H12">
-        <v>21.68436229039294</v>
+        <v>14.40218859656184</v>
       </c>
       <c r="I12">
-        <v>34.0006601086161</v>
+        <v>23.327965168637</v>
       </c>
       <c r="J12">
-        <v>8.067830502628871</v>
+        <v>4.595869219742312</v>
       </c>
       <c r="K12">
-        <v>16.21600548674147</v>
+        <v>15.8520592786855</v>
       </c>
       <c r="L12">
-        <v>13.28346300435027</v>
+        <v>9.079549772733881</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.26358338681945</v>
+        <v>14.47560039377683</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.21163468061549</v>
+        <v>19.69620719691584</v>
       </c>
       <c r="C13">
-        <v>4.847033700362648</v>
+        <v>8.48309263254523</v>
       </c>
       <c r="D13">
-        <v>13.4569978316202</v>
+        <v>10.24906471300589</v>
       </c>
       <c r="E13">
-        <v>13.27154201143991</v>
+        <v>8.308960216255208</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>58.92514956346363</v>
+        <v>47.7382966061374</v>
       </c>
       <c r="H13">
-        <v>21.68581272996912</v>
+        <v>14.39644782680754</v>
       </c>
       <c r="I13">
-        <v>34.00282030775877</v>
+        <v>23.31765509151054</v>
       </c>
       <c r="J13">
-        <v>8.068195239661467</v>
+        <v>4.596827894605897</v>
       </c>
       <c r="K13">
-        <v>16.20869990541795</v>
+        <v>15.80717307062009</v>
       </c>
       <c r="L13">
-        <v>13.28319006941814</v>
+        <v>9.069205367473538</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.26686943917786</v>
+        <v>14.48804755350208</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.17772877818343</v>
+        <v>19.53805731319166</v>
       </c>
       <c r="C14">
-        <v>4.8092425374673</v>
+        <v>8.407163911133894</v>
       </c>
       <c r="D14">
-        <v>13.45273920838928</v>
+        <v>10.19828398789018</v>
       </c>
       <c r="E14">
-        <v>13.27348205661731</v>
+        <v>8.293653340657341</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>58.91238721439957</v>
+        <v>47.54386765696428</v>
       </c>
       <c r="H14">
-        <v>21.69062423868776</v>
+        <v>14.37800395755333</v>
       </c>
       <c r="I14">
-        <v>34.01000302478378</v>
+        <v>23.28452201053595</v>
       </c>
       <c r="J14">
-        <v>8.069390719571349</v>
+        <v>4.599963164928511</v>
       </c>
       <c r="K14">
-        <v>16.18493353845135</v>
+        <v>15.66012273154411</v>
       </c>
       <c r="L14">
-        <v>13.28234903999207</v>
+        <v>9.035537969900687</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.27763380428343</v>
+        <v>14.52872482781165</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.15700727635327</v>
+        <v>19.44079508561296</v>
       </c>
       <c r="C15">
-        <v>4.785936401870042</v>
+        <v>8.360411320144253</v>
       </c>
       <c r="D15">
-        <v>13.45017507403897</v>
+        <v>10.16719784428331</v>
       </c>
       <c r="E15">
-        <v>13.27470191117084</v>
+        <v>8.284350486805431</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>58.90481308501836</v>
+        <v>47.42540141126911</v>
       </c>
       <c r="H15">
-        <v>21.69363390355326</v>
+        <v>14.36691878043192</v>
       </c>
       <c r="I15">
-        <v>34.01450855029537</v>
+        <v>23.26460128397702</v>
       </c>
       <c r="J15">
-        <v>8.070127593858988</v>
+        <v>4.601890419761948</v>
       </c>
       <c r="K15">
-        <v>16.17042152730097</v>
+        <v>15.57926315042061</v>
       </c>
       <c r="L15">
-        <v>13.28187161611129</v>
+        <v>9.014968155503501</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.28426406033899</v>
+        <v>14.55370572030458</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.03900746593661</v>
+        <v>18.87746516485867</v>
       </c>
       <c r="C16">
-        <v>4.649958070306834</v>
+        <v>8.088715889511807</v>
       </c>
       <c r="D16">
-        <v>13.43616386341945</v>
+        <v>9.989365432627794</v>
       </c>
       <c r="E16">
-        <v>13.28217595385587</v>
+        <v>8.232152137347006</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>58.86514065969215</v>
+        <v>46.75608827124637</v>
       </c>
       <c r="H16">
-        <v>21.71183852742262</v>
+        <v>14.30658888255631</v>
       </c>
       <c r="I16">
-        <v>34.04195053072756</v>
+        <v>23.1560759161864</v>
       </c>
       <c r="J16">
-        <v>8.074421082117308</v>
+        <v>4.613040411116506</v>
       </c>
       <c r="K16">
-        <v>16.08797615931255</v>
+        <v>15.14390415354852</v>
       </c>
       <c r="L16">
-        <v>13.27971497348751</v>
+        <v>8.897904217195908</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.32282360852073</v>
+        <v>14.697858047395</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.96731588762065</v>
+        <v>18.52660459743461</v>
       </c>
       <c r="C17">
-        <v>4.564381300882197</v>
+        <v>7.918634616884552</v>
       </c>
       <c r="D17">
-        <v>13.42818018828419</v>
+        <v>9.880577370368268</v>
       </c>
       <c r="E17">
-        <v>13.2871929617331</v>
+        <v>8.201115252382388</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>58.84413743781504</v>
+        <v>46.35398130106127</v>
       </c>
       <c r="H17">
-        <v>21.7238606411319</v>
+        <v>14.27236666386646</v>
       </c>
       <c r="I17">
-        <v>34.06023252058665</v>
+        <v>23.09441277135103</v>
       </c>
       <c r="J17">
-        <v>8.077118276172776</v>
+        <v>4.619976227169287</v>
       </c>
       <c r="K17">
-        <v>16.03805849774639</v>
+        <v>14.87318043171644</v>
       </c>
       <c r="L17">
-        <v>13.27890985941658</v>
+        <v>8.826826222532832</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.34698279782065</v>
+        <v>14.78718360881845</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.9263493982357</v>
+        <v>18.32287987628431</v>
       </c>
       <c r="C18">
-        <v>4.514367219953082</v>
+        <v>7.819543240501075</v>
       </c>
       <c r="D18">
-        <v>13.42381394831618</v>
+        <v>9.818130572669331</v>
       </c>
       <c r="E18">
-        <v>13.29023751417523</v>
+        <v>8.183622682167574</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>58.83328396939685</v>
+        <v>46.12580546294097</v>
       </c>
       <c r="H18">
-        <v>21.7310892634969</v>
+        <v>14.2536830457205</v>
       </c>
       <c r="I18">
-        <v>34.07127939631665</v>
+        <v>23.06070735809162</v>
       </c>
       <c r="J18">
-        <v>8.078692940198536</v>
+        <v>4.624001210205229</v>
       </c>
       <c r="K18">
-        <v>16.00959755307619</v>
+        <v>14.71614697315526</v>
       </c>
       <c r="L18">
-        <v>13.27863749717868</v>
+        <v>8.7862195630768</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.36106407209184</v>
+        <v>14.83889089897181</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.91252614150785</v>
+        <v>18.25357480018818</v>
       </c>
       <c r="C19">
-        <v>4.497297261575957</v>
+        <v>7.785774053561201</v>
       </c>
       <c r="D19">
-        <v>13.42237447491602</v>
+        <v>9.797009930236364</v>
       </c>
       <c r="E19">
-        <v>13.29129565470362</v>
+        <v>8.177761378169558</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>58.82982004896519</v>
+        <v>46.04908091314155</v>
       </c>
       <c r="H19">
-        <v>21.73359064113004</v>
+        <v>14.24752655097014</v>
       </c>
       <c r="I19">
-        <v>34.07511094496476</v>
+        <v>23.049593677331</v>
       </c>
       <c r="J19">
-        <v>8.079230103002482</v>
+        <v>4.625370178798664</v>
       </c>
       <c r="K19">
-        <v>16.00000490649956</v>
+        <v>14.66275345999158</v>
       </c>
       <c r="L19">
-        <v>13.27857807107198</v>
+        <v>8.77251863578692</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.365863643635</v>
+        <v>14.85645486805068</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.97492005424376</v>
+        <v>18.56415341671535</v>
       </c>
       <c r="C20">
-        <v>4.573573141137613</v>
+        <v>7.936870691251513</v>
       </c>
       <c r="D20">
-        <v>13.42900671963773</v>
+        <v>9.892145382128883</v>
       </c>
       <c r="E20">
-        <v>13.28664245068149</v>
+        <v>8.204381956676992</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>58.84624630661131</v>
+        <v>46.3964645130531</v>
       </c>
       <c r="H20">
-        <v>21.72254838530732</v>
+        <v>14.27590562086862</v>
       </c>
       <c r="I20">
-        <v>34.05823135029669</v>
+        <v>23.10079360873887</v>
       </c>
       <c r="J20">
-        <v>8.07682874407177</v>
+        <v>4.619234216271124</v>
       </c>
       <c r="K20">
-        <v>16.04334658125622</v>
+        <v>14.90213656264604</v>
       </c>
       <c r="L20">
-        <v>13.27897583500608</v>
+        <v>8.834364190873348</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.34439181354361</v>
+        <v>14.77764067630014</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.18767807072321</v>
+        <v>19.58459128710684</v>
       </c>
       <c r="C21">
-        <v>4.820375637561525</v>
+        <v>8.429516793953857</v>
       </c>
       <c r="D21">
-        <v>13.45398082304191</v>
+        <v>10.21319571838657</v>
       </c>
       <c r="E21">
-        <v>13.27290565042382</v>
+        <v>8.298134100468465</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.91608515921355</v>
+        <v>47.60084535880476</v>
       </c>
       <c r="H21">
-        <v>21.68919796149562</v>
+        <v>14.38337700164908</v>
       </c>
       <c r="I21">
-        <v>34.00787121505625</v>
+        <v>23.29417575812457</v>
       </c>
       <c r="J21">
-        <v>8.069038618074821</v>
+        <v>4.599040843665708</v>
       </c>
       <c r="K21">
-        <v>16.19190484341162</v>
+        <v>15.70342189983309</v>
       </c>
       <c r="L21">
-        <v>13.28258820999865</v>
+        <v>9.045415994461006</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.27446438762855</v>
+        <v>14.51676340872656</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.32885749282669</v>
+        <v>20.23406020760066</v>
       </c>
       <c r="C22">
-        <v>4.974606964969225</v>
+        <v>8.740528086573773</v>
       </c>
       <c r="D22">
-        <v>13.47229247034152</v>
+        <v>10.42388233633173</v>
       </c>
       <c r="E22">
-        <v>13.26533912551588</v>
+        <v>8.362668002381488</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.97261758624036</v>
+        <v>48.41600080069818</v>
       </c>
       <c r="H22">
-        <v>21.6701976399886</v>
+        <v>14.4630480845837</v>
       </c>
       <c r="I22">
-        <v>33.97969721416172</v>
+        <v>23.43719322105299</v>
       </c>
       <c r="J22">
-        <v>8.064153725371687</v>
+        <v>4.586149604933678</v>
       </c>
       <c r="K22">
-        <v>16.291057378076</v>
+        <v>16.30512967215735</v>
       </c>
       <c r="L22">
-        <v>13.28663891696408</v>
+        <v>9.185709900357008</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.23040931191624</v>
+        <v>14.34917297250115</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.25332527933734</v>
+        <v>19.88903487952101</v>
       </c>
       <c r="C23">
-        <v>4.892937817111536</v>
+        <v>8.575522854184245</v>
       </c>
       <c r="D23">
-        <v>13.46233820837368</v>
+        <v>10.31136708343981</v>
       </c>
       <c r="E23">
-        <v>13.26924858013166</v>
+        <v>8.327923437710218</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>58.94145099430481</v>
+        <v>47.97835304497377</v>
       </c>
       <c r="H23">
-        <v>21.68008256425374</v>
+        <v>14.41963716838506</v>
       </c>
       <c r="I23">
-        <v>33.99430031841558</v>
+        <v>23.35929411157277</v>
       </c>
       <c r="J23">
-        <v>8.066742054433726</v>
+        <v>4.59300244661692</v>
       </c>
       <c r="K23">
-        <v>16.23795747223639</v>
+        <v>15.98607012092333</v>
       </c>
       <c r="L23">
-        <v>13.2843227988204</v>
+        <v>9.11062057736995</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.25377195085683</v>
+        <v>14.43835395661586</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.97148142899663</v>
+        <v>18.54718385250723</v>
       </c>
       <c r="C24">
-        <v>4.56942004816513</v>
+        <v>7.928630243736981</v>
       </c>
       <c r="D24">
-        <v>13.42863234785766</v>
+        <v>9.886915179181695</v>
       </c>
       <c r="E24">
-        <v>13.28689083766096</v>
+        <v>8.20290398724484</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>58.84528908144077</v>
+        <v>46.37724850987833</v>
       </c>
       <c r="H24">
-        <v>21.72314066885478</v>
+        <v>14.27430257685774</v>
       </c>
       <c r="I24">
-        <v>34.05913440878926</v>
+        <v>23.09790340556312</v>
       </c>
       <c r="J24">
-        <v>8.076959566729727</v>
+        <v>4.61956956249999</v>
       </c>
       <c r="K24">
-        <v>16.04095509739044</v>
+        <v>14.88904982331709</v>
       </c>
       <c r="L24">
-        <v>13.2789454139339</v>
+        <v>8.830955473694459</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.34556259986865</v>
+        <v>14.78195393673644</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.67788482747877</v>
+        <v>17.02689998002008</v>
       </c>
       <c r="C25">
-        <v>4.214921106062018</v>
+        <v>7.182342680091547</v>
       </c>
       <c r="D25">
-        <v>13.40091549115406</v>
+        <v>9.434066383224247</v>
       </c>
       <c r="E25">
-        <v>13.31199779529273</v>
+        <v>8.081738386565201</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>58.78848040190624</v>
+        <v>44.76874167956726</v>
       </c>
       <c r="H25">
-        <v>21.78158207314504</v>
+        <v>14.15547380685991</v>
       </c>
       <c r="I25">
-        <v>34.14938590689129</v>
+        <v>22.88275844828627</v>
       </c>
       <c r="J25">
-        <v>8.088872699006689</v>
+        <v>4.649596996089627</v>
       </c>
       <c r="K25">
-        <v>15.83812086333512</v>
+        <v>13.72021686661367</v>
       </c>
       <c r="L25">
-        <v>13.28044015995459</v>
+        <v>8.53989828492656</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23.45167135087825</v>
+        <v>15.16521665806579</v>
       </c>
       <c r="O25">
         <v>0</v>
